--- a/Univ/bin/Debug/template/dafa3_Template.xlsx
+++ b/Univ/bin/Debug/template/dafa3_Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\habib\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\habib\source\repos\Univpp\Univ\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="p" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>هيكل الإلتـزام المقترح  :</t>
   </si>
   <si>
-    <t>موضوع الإلتـــزام</t>
-  </si>
-  <si>
     <t>إسم وعنــوان العمليـــــة</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
   </si>
   <si>
     <t>عمليــات الميــزانيــة</t>
-  </si>
-  <si>
-    <t>بطــاقــة الإلتزام</t>
   </si>
   <si>
     <t>السطر</t>
@@ -353,6 +347,12 @@
   <si>
     <t xml:space="preserve">       الجمهورية الجزائرية الديمقراطية الشعبية</t>
   </si>
+  <si>
+    <t>بطاقـــــــــة الدفــــــع</t>
+  </si>
+  <si>
+    <t>موضوع الدفع</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +363,7 @@
     <numFmt numFmtId="165" formatCode="#,##0_-"/>
     <numFmt numFmtId="166" formatCode="00"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -536,6 +536,12 @@
       <sz val="26"/>
       <name val="Arabic Transparent"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1472,7 +1478,7 @@
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="336">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1725,7 +1731,16 @@
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1796,7 +1811,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="39" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1895,13 +1910,19 @@
     <xf numFmtId="165" fontId="21" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="2" borderId="77" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1943,34 +1964,40 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="78" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="78" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="24" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2126,6 +2153,12 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="2" fontId="19" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2210,6 +2243,9 @@
     <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
     <xf numFmtId="2" fontId="10" fillId="2" borderId="56" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2302,15 +2338,6 @@
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="74" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="53" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -17138,11 +17165,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="47"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Z46"/>
+  <dimension ref="B1:AB46"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:H38"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17160,57 +17188,76 @@
     <col min="21" max="26" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="Q1" s="133" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="133"/>
-      <c r="S1" s="133"/>
-      <c r="T1" s="133"/>
-      <c r="U1" s="133"/>
-      <c r="V1" s="133"/>
-      <c r="W1" s="133"/>
-      <c r="X1" s="133"/>
+    <row r="1" spans="2:28" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="O1" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="134"/>
+      <c r="T1" s="134"/>
+      <c r="U1" s="134"/>
+      <c r="V1" s="134"/>
+      <c r="W1" s="134"/>
+      <c r="X1" s="134"/>
+      <c r="Y1" s="134"/>
+      <c r="Z1" s="133"/>
+      <c r="AA1" s="133"/>
+      <c r="AB1" s="133"/>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B3" s="134" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
+    <row r="2" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="135"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B3" s="137" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="135" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="137"/>
+      <c r="F3" s="138" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="140"/>
       <c r="K3" s="7"/>
-      <c r="L3" s="135" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="137"/>
+      <c r="L3" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="140"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B4" s="135" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B4" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
       <c r="E4" s="7"/>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -17246,83 +17293,83 @@
       <c r="Y4" s="34"/>
       <c r="Z4" s="34"/>
     </row>
-    <row r="5" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="149">
+    <row r="5" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="152">
         <v>268.39299999999997</v>
       </c>
-      <c r="C5" s="150"/>
-      <c r="D5" s="151"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="145" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="145" t="s">
+      <c r="F5" s="148" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="152" t="s">
+      <c r="G5" s="148" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="153"/>
-      <c r="J5" s="154"/>
+      <c r="H5" s="155" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="156"/>
+      <c r="J5" s="157"/>
       <c r="K5" s="30"/>
-      <c r="L5" s="155" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="145" t="s">
+      <c r="L5" s="158" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="145" t="s">
+      <c r="M5" s="148" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="138" t="s">
+      <c r="N5" s="148" t="s">
         <v>30</v>
       </c>
-      <c r="P5" s="139"/>
-      <c r="Q5" s="140"/>
-      <c r="R5" s="147" t="s">
+      <c r="O5" s="141" t="s">
         <v>29</v>
       </c>
-      <c r="S5" s="138" t="s">
+      <c r="P5" s="142"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="150" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="139"/>
-      <c r="U5" s="139"/>
-      <c r="V5" s="139"/>
-      <c r="W5" s="139"/>
-      <c r="X5" s="140"/>
-      <c r="Y5" s="141" t="s">
+      <c r="S5" s="141" t="s">
         <v>27</v>
       </c>
-      <c r="Z5" s="142"/>
+      <c r="T5" s="142"/>
+      <c r="U5" s="142"/>
+      <c r="V5" s="142"/>
+      <c r="W5" s="142"/>
+      <c r="X5" s="143"/>
+      <c r="Y5" s="144" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="145"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B6" s="33"/>
       <c r="C6" s="32"/>
       <c r="D6" s="31"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
       <c r="H6" s="29"/>
       <c r="I6" s="28"/>
       <c r="J6" s="27"/>
       <c r="K6" s="30"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
+      <c r="L6" s="159"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
       <c r="O6" s="29"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="27"/>
-      <c r="R6" s="148"/>
+      <c r="R6" s="151"/>
       <c r="S6" s="29"/>
       <c r="T6" s="28"/>
       <c r="U6" s="28"/>
       <c r="V6" s="28"/>
       <c r="W6" s="28"/>
       <c r="X6" s="27"/>
-      <c r="Y6" s="143"/>
-      <c r="Z6" s="144"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="147"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -17349,63 +17396,63 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="26"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B8" s="167" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
-      <c r="G8" s="157"/>
-      <c r="H8" s="157"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="157"/>
-      <c r="K8" s="157"/>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
-      <c r="N8" s="157"/>
-      <c r="O8" s="157"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="157"/>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
-      <c r="W8" s="157"/>
-      <c r="X8" s="157"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="157"/>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B8" s="170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
+      <c r="K8" s="160"/>
+      <c r="L8" s="160"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
+      <c r="O8" s="160"/>
+      <c r="P8" s="160"/>
+      <c r="Q8" s="160"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="160"/>
     </row>
-    <row r="9" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="157"/>
-      <c r="H9" s="157"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="157"/>
-      <c r="K9" s="157"/>
-      <c r="L9" s="157"/>
-      <c r="M9" s="157"/>
-      <c r="N9" s="157"/>
-      <c r="O9" s="157"/>
-      <c r="P9" s="157"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="157"/>
-      <c r="S9" s="157"/>
-      <c r="T9" s="157"/>
-      <c r="U9" s="157"/>
-      <c r="V9" s="157"/>
-      <c r="W9" s="157"/>
-      <c r="X9" s="157"/>
-      <c r="Y9" s="157"/>
-      <c r="Z9" s="157"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="160"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="160"/>
+      <c r="S9" s="160"/>
+      <c r="T9" s="160"/>
+      <c r="U9" s="160"/>
+      <c r="V9" s="160"/>
+      <c r="W9" s="160"/>
+      <c r="X9" s="160"/>
+      <c r="Y9" s="160"/>
+      <c r="Z9" s="160"/>
     </row>
-    <row r="10" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -17432,171 +17479,171 @@
       <c r="Y10" s="38"/>
       <c r="Z10" s="38"/>
     </row>
-    <row r="11" spans="2:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7"/>
-      <c r="C11" s="167" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="167"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
-      <c r="J11" s="157"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="157"/>
-      <c r="S11" s="157"/>
-      <c r="T11" s="157"/>
-      <c r="U11" s="157"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="157"/>
-      <c r="X11" s="157"/>
-      <c r="Y11" s="157"/>
-      <c r="Z11" s="157"/>
+      <c r="C11" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="136"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="160"/>
+      <c r="P11" s="160"/>
+      <c r="Q11" s="160"/>
+      <c r="R11" s="160"/>
+      <c r="S11" s="160"/>
+      <c r="T11" s="160"/>
+      <c r="U11" s="160"/>
+      <c r="V11" s="160"/>
+      <c r="W11" s="160"/>
+      <c r="X11" s="160"/>
+      <c r="Y11" s="160"/>
+      <c r="Z11" s="160"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157"/>
-      <c r="T12" s="157"/>
-      <c r="U12" s="157"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157"/>
-      <c r="X12" s="157"/>
-      <c r="Y12" s="157"/>
-      <c r="Z12" s="157"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="160"/>
+      <c r="T12" s="160"/>
+      <c r="U12" s="160"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="157"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="157"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="157"/>
-      <c r="S13" s="157"/>
-      <c r="T13" s="157"/>
-      <c r="U13" s="157"/>
-      <c r="V13" s="157"/>
-      <c r="W13" s="157"/>
-      <c r="X13" s="157"/>
-      <c r="Y13" s="157"/>
-      <c r="Z13" s="157"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="160"/>
+      <c r="Q13" s="160"/>
+      <c r="R13" s="160"/>
+      <c r="S13" s="160"/>
+      <c r="T13" s="160"/>
+      <c r="U13" s="160"/>
+      <c r="V13" s="160"/>
+      <c r="W13" s="160"/>
+      <c r="X13" s="160"/>
+      <c r="Y13" s="160"/>
+      <c r="Z13" s="160"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="157"/>
-      <c r="S14" s="157"/>
-      <c r="T14" s="157"/>
-      <c r="U14" s="157"/>
-      <c r="V14" s="157"/>
-      <c r="W14" s="157"/>
-      <c r="X14" s="157"/>
-      <c r="Y14" s="157"/>
-      <c r="Z14" s="157"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="160"/>
+      <c r="Q14" s="160"/>
+      <c r="R14" s="160"/>
+      <c r="S14" s="160"/>
+      <c r="T14" s="160"/>
+      <c r="U14" s="160"/>
+      <c r="V14" s="160"/>
+      <c r="W14" s="160"/>
+      <c r="X14" s="160"/>
+      <c r="Y14" s="160"/>
+      <c r="Z14" s="160"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="157"/>
-      <c r="H15" s="157"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="157"/>
-      <c r="K15" s="157"/>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="157"/>
-      <c r="S15" s="157"/>
-      <c r="T15" s="157"/>
-      <c r="U15" s="157"/>
-      <c r="V15" s="157"/>
-      <c r="W15" s="157"/>
-      <c r="X15" s="157"/>
-      <c r="Y15" s="157"/>
-      <c r="Z15" s="157"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="160"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="160"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="160"/>
+      <c r="S15" s="160"/>
+      <c r="T15" s="160"/>
+      <c r="U15" s="160"/>
+      <c r="V15" s="160"/>
+      <c r="W15" s="160"/>
+      <c r="X15" s="160"/>
+      <c r="Y15" s="160"/>
+      <c r="Z15" s="160"/>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B16" s="7"/>
-      <c r="C16" s="167" t="s">
+      <c r="C16" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="157"/>
-      <c r="H16" s="157"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="157"/>
-      <c r="K16" s="157"/>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="157"/>
-      <c r="S16" s="157"/>
-      <c r="T16" s="157"/>
-      <c r="U16" s="157"/>
-      <c r="V16" s="157"/>
-      <c r="W16" s="157"/>
-      <c r="X16" s="157"/>
-      <c r="Y16" s="157"/>
-      <c r="Z16" s="157"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="160"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="160"/>
+      <c r="S16" s="160"/>
+      <c r="T16" s="160"/>
+      <c r="U16" s="160"/>
+      <c r="V16" s="160"/>
+      <c r="W16" s="160"/>
+      <c r="X16" s="160"/>
+      <c r="Y16" s="160"/>
+      <c r="Z16" s="160"/>
     </row>
     <row r="17" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B17" s="7"/>
@@ -17626,37 +17673,37 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B18" s="135" t="s">
+      <c r="B18" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="135" t="s">
+      <c r="C18" s="139"/>
+      <c r="D18" s="139"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="136"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="137"/>
-      <c r="M18" s="135" t="s">
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="136"/>
-      <c r="O18" s="136"/>
-      <c r="P18" s="136"/>
-      <c r="Q18" s="136"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
-      <c r="U18" s="136"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="136"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="137"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="139"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="140"/>
     </row>
     <row r="19" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
@@ -17699,12 +17746,12 @@
         <v>8</v>
       </c>
       <c r="F20" s="9"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="160"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="163"/>
       <c r="M20" s="11"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -17734,12 +17781,12 @@
         <v>8</v>
       </c>
       <c r="F21" s="9"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="160"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="163"/>
       <c r="M21" s="11"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -17769,12 +17816,12 @@
         <v>8</v>
       </c>
       <c r="F22" s="9"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="160"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="163"/>
       <c r="M22" s="11"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -17804,12 +17851,12 @@
         <v>8</v>
       </c>
       <c r="F23" s="9"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="163"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="165"/>
+      <c r="J23" s="165"/>
+      <c r="K23" s="165"/>
+      <c r="L23" s="166"/>
       <c r="M23" s="11"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -17839,14 +17886,14 @@
         <v>8</v>
       </c>
       <c r="F24" s="9"/>
-      <c r="G24" s="158" t="s">
+      <c r="G24" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="159"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="159"/>
-      <c r="L24" s="160"/>
+      <c r="H24" s="162"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="162"/>
+      <c r="K24" s="162"/>
+      <c r="L24" s="163"/>
       <c r="M24" s="11"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -17876,12 +17923,12 @@
         <v>8</v>
       </c>
       <c r="F25" s="9"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="163"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="165"/>
+      <c r="J25" s="165"/>
+      <c r="K25" s="165"/>
+      <c r="L25" s="166"/>
       <c r="M25" s="11"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -17911,12 +17958,12 @@
         <v>8</v>
       </c>
       <c r="F26" s="9"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="163"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="165"/>
+      <c r="J26" s="165"/>
+      <c r="K26" s="165"/>
+      <c r="L26" s="166"/>
       <c r="M26" s="11"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -17946,12 +17993,12 @@
         <v>8</v>
       </c>
       <c r="F27" s="9"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="163"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="165"/>
+      <c r="J27" s="165"/>
+      <c r="K27" s="165"/>
+      <c r="L27" s="166"/>
       <c r="M27" s="11"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -17981,12 +18028,12 @@
         <v>8</v>
       </c>
       <c r="F28" s="9"/>
-      <c r="G28" s="158"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="160"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="163"/>
       <c r="M28" s="11"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -18016,12 +18063,12 @@
         <v>8</v>
       </c>
       <c r="F29" s="9"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="160"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="163"/>
       <c r="M29" s="11"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -18051,12 +18098,12 @@
         <v>8</v>
       </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="160"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="163"/>
       <c r="M30" s="11"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -18100,31 +18147,31 @@
       <c r="Z31" s="9"/>
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B32" s="135"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="137"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="165"/>
-      <c r="J32" s="165"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="136"/>
-      <c r="P32" s="136"/>
-      <c r="Q32" s="136"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="136"/>
-      <c r="T32" s="136"/>
-      <c r="U32" s="136"/>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="136"/>
-      <c r="Y32" s="136"/>
-      <c r="Z32" s="137"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="168"/>
+      <c r="L32" s="169"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="139"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="140"/>
     </row>
     <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
@@ -18183,62 +18230,62 @@
       <c r="Z34" s="7"/>
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="136"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="135" t="s">
+      <c r="C35" s="139"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="137"/>
-      <c r="L35" s="135" t="s">
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="M35" s="136"/>
-      <c r="N35" s="136"/>
-      <c r="O35" s="136"/>
-      <c r="P35" s="136"/>
-      <c r="Q35" s="136"/>
-      <c r="R35" s="136"/>
-      <c r="S35" s="136"/>
-      <c r="T35" s="137"/>
-      <c r="U35" s="135" t="s">
+      <c r="M35" s="139"/>
+      <c r="N35" s="139"/>
+      <c r="O35" s="139"/>
+      <c r="P35" s="139"/>
+      <c r="Q35" s="139"/>
+      <c r="R35" s="139"/>
+      <c r="S35" s="139"/>
+      <c r="T35" s="140"/>
+      <c r="U35" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="V35" s="136"/>
-      <c r="W35" s="136"/>
-      <c r="X35" s="136"/>
-      <c r="Y35" s="136"/>
-      <c r="Z35" s="137"/>
+      <c r="V35" s="139"/>
+      <c r="W35" s="139"/>
+      <c r="X35" s="139"/>
+      <c r="Y35" s="139"/>
+      <c r="Z35" s="140"/>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B36" s="171">
+      <c r="B36" s="174">
         <v>0</v>
       </c>
-      <c r="C36" s="172"/>
-      <c r="D36" s="173"/>
-      <c r="E36" s="164"/>
-      <c r="F36" s="165"/>
-      <c r="G36" s="165"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="166"/>
-      <c r="L36" s="168"/>
-      <c r="M36" s="169"/>
-      <c r="N36" s="169"/>
-      <c r="O36" s="169"/>
-      <c r="P36" s="169"/>
-      <c r="Q36" s="169"/>
-      <c r="R36" s="169"/>
-      <c r="S36" s="169"/>
-      <c r="T36" s="170"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="176"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="169"/>
+      <c r="L36" s="171"/>
+      <c r="M36" s="172"/>
+      <c r="N36" s="172"/>
+      <c r="O36" s="172"/>
+      <c r="P36" s="172"/>
+      <c r="Q36" s="172"/>
+      <c r="R36" s="172"/>
+      <c r="S36" s="172"/>
+      <c r="T36" s="173"/>
       <c r="U36" s="19"/>
       <c r="V36" s="19"/>
       <c r="W36" s="19"/>
@@ -18274,15 +18321,15 @@
       <c r="Z37" s="7"/>
     </row>
     <row r="38" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="B38" s="135" t="s">
+      <c r="B38" s="138" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="136"/>
-      <c r="D38" s="136"/>
-      <c r="E38" s="136"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="136"/>
-      <c r="H38" s="137"/>
+      <c r="C38" s="139"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="140"/>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
@@ -18504,6 +18551,7 @@
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G22:L22"/>
     <mergeCell ref="E15:Z16"/>
+    <mergeCell ref="M5:M6"/>
     <mergeCell ref="E8:Z9"/>
     <mergeCell ref="G29:L29"/>
     <mergeCell ref="G30:L30"/>
@@ -18515,12 +18563,12 @@
     <mergeCell ref="G25:L25"/>
     <mergeCell ref="G28:L28"/>
     <mergeCell ref="E11:Z12"/>
-    <mergeCell ref="C11:D11"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="M18:Z18"/>
     <mergeCell ref="G24:L24"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="Q1:X1"/>
+    <mergeCell ref="O1:Y2"/>
+    <mergeCell ref="C11:D12"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="L3:Z3"/>
@@ -18535,10 +18583,9 @@
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -18547,11 +18594,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="52"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:AG70"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F30"/>
+    <sheetView rightToLeft="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18583,138 +18631,138 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="311" t="s">
-        <v>106</v>
-      </c>
-      <c r="B2" s="311"/>
-      <c r="C2" s="311"/>
-      <c r="D2" s="311"/>
-      <c r="E2" s="311"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="311"/>
-      <c r="H2" s="311"/>
-      <c r="I2" s="311"/>
-      <c r="J2" s="311"/>
-      <c r="K2" s="311"/>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
-      <c r="N2" s="311"/>
-      <c r="O2" s="311"/>
-      <c r="P2" s="311"/>
-      <c r="Q2" s="311"/>
+      <c r="A2" s="321" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="321"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="321"/>
+      <c r="J2" s="321"/>
+      <c r="K2" s="321"/>
+      <c r="L2" s="321"/>
+      <c r="M2" s="321"/>
+      <c r="N2" s="321"/>
+      <c r="O2" s="321"/>
+      <c r="P2" s="321"/>
+      <c r="Q2" s="321"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="312" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" s="312"/>
-      <c r="C3" s="312"/>
-      <c r="D3" s="312"/>
-      <c r="E3" s="312"/>
+      <c r="A3" s="322" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="322"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
       <c r="I3" s="42"/>
       <c r="J3" s="42"/>
       <c r="K3" s="42"/>
       <c r="L3" s="42"/>
     </row>
     <row r="4" spans="1:19" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="313" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="314"/>
-      <c r="I4" s="314"/>
-      <c r="J4" s="314"/>
-      <c r="K4" s="314"/>
-      <c r="L4" s="315"/>
+      <c r="G4" s="323" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="324"/>
+      <c r="I4" s="324"/>
+      <c r="J4" s="324"/>
+      <c r="K4" s="324"/>
+      <c r="L4" s="325"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="313" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="314"/>
-      <c r="I5" s="314"/>
-      <c r="J5" s="314"/>
-      <c r="K5" s="314"/>
-      <c r="L5" s="315"/>
+      <c r="G5" s="323" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="324"/>
+      <c r="I5" s="324"/>
+      <c r="J5" s="324"/>
+      <c r="K5" s="324"/>
+      <c r="L5" s="325"/>
     </row>
     <row r="6" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="316"/>
-      <c r="B6" s="316"/>
-      <c r="C6" s="316"/>
-      <c r="D6" s="316"/>
-      <c r="E6" s="316"/>
-      <c r="F6" s="316"/>
-      <c r="G6" s="317" t="s">
-        <v>104</v>
-      </c>
-      <c r="H6" s="318"/>
-      <c r="I6" s="318"/>
-      <c r="J6" s="318"/>
-      <c r="K6" s="318"/>
-      <c r="L6" s="319"/>
-      <c r="M6" s="320" t="s">
-        <v>103</v>
-      </c>
-      <c r="N6" s="321"/>
-      <c r="O6" s="321"/>
-      <c r="P6" s="321"/>
-      <c r="Q6" s="321"/>
-      <c r="R6" s="321"/>
-      <c r="S6" s="321"/>
+      <c r="A6" s="326"/>
+      <c r="B6" s="326"/>
+      <c r="C6" s="326"/>
+      <c r="D6" s="326"/>
+      <c r="E6" s="326"/>
+      <c r="F6" s="326"/>
+      <c r="G6" s="327" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="328"/>
+      <c r="I6" s="328"/>
+      <c r="J6" s="328"/>
+      <c r="K6" s="328"/>
+      <c r="L6" s="329"/>
+      <c r="M6" s="330" t="s">
+        <v>101</v>
+      </c>
+      <c r="N6" s="331"/>
+      <c r="O6" s="331"/>
+      <c r="P6" s="331"/>
+      <c r="Q6" s="331"/>
+      <c r="R6" s="331"/>
+      <c r="S6" s="331"/>
     </row>
     <row r="7" spans="1:19" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M7" s="322" t="s">
-        <v>102</v>
-      </c>
-      <c r="N7" s="322"/>
-      <c r="O7" s="322"/>
-      <c r="P7" s="322"/>
-      <c r="Q7" s="322"/>
-      <c r="R7" s="322"/>
-      <c r="S7" s="322"/>
+      <c r="M7" s="332" t="s">
+        <v>100</v>
+      </c>
+      <c r="N7" s="332"/>
+      <c r="O7" s="332"/>
+      <c r="P7" s="332"/>
+      <c r="Q7" s="332"/>
+      <c r="R7" s="332"/>
+      <c r="S7" s="332"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="323" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="324"/>
-      <c r="C8" s="324"/>
-      <c r="D8" s="325"/>
+      <c r="A8" s="333" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="334"/>
+      <c r="C8" s="334"/>
+      <c r="D8" s="335"/>
       <c r="I8" s="47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J8" s="46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K8" s="46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L8" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="322"/>
-      <c r="N8" s="322"/>
-      <c r="O8" s="322"/>
-      <c r="P8" s="322"/>
-      <c r="Q8" s="322"/>
-      <c r="R8" s="322"/>
-      <c r="S8" s="322"/>
+        <v>80</v>
+      </c>
+      <c r="M8" s="332"/>
+      <c r="N8" s="332"/>
+      <c r="O8" s="332"/>
+      <c r="P8" s="332"/>
+      <c r="Q8" s="332"/>
+      <c r="R8" s="332"/>
+      <c r="S8" s="332"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="300"/>
+      <c r="A9" s="308" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="309"/>
+      <c r="C9" s="309"/>
+      <c r="D9" s="310"/>
       <c r="E9" s="48"/>
       <c r="F9" s="49"/>
       <c r="G9" s="49"/>
       <c r="H9" s="49"/>
       <c r="I9" s="50" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J9" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K9" s="44"/>
       <c r="L9" s="51">
@@ -18722,13 +18770,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="49"/>
-      <c r="N9" s="301"/>
-      <c r="O9" s="301"/>
-      <c r="P9" s="301"/>
-      <c r="Q9" s="301"/>
-      <c r="R9" s="301"/>
-      <c r="S9" s="265" t="s">
-        <v>59</v>
+      <c r="N9" s="311"/>
+      <c r="O9" s="311"/>
+      <c r="P9" s="311"/>
+      <c r="Q9" s="311"/>
+      <c r="R9" s="311"/>
+      <c r="S9" s="272" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
@@ -18745,12 +18793,12 @@
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
-      <c r="N10" s="301"/>
-      <c r="O10" s="301"/>
-      <c r="P10" s="301"/>
-      <c r="Q10" s="301"/>
-      <c r="R10" s="301"/>
-      <c r="S10" s="265"/>
+      <c r="N10" s="311"/>
+      <c r="O10" s="311"/>
+      <c r="P10" s="311"/>
+      <c r="Q10" s="311"/>
+      <c r="R10" s="311"/>
+      <c r="S10" s="272"/>
     </row>
     <row r="11" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
@@ -18766,66 +18814,66 @@
       <c r="K11" s="49"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49"/>
-      <c r="N11" s="301"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="301"/>
-      <c r="Q11" s="301"/>
-      <c r="R11" s="301"/>
-      <c r="S11" s="265"/>
+      <c r="N11" s="311"/>
+      <c r="O11" s="311"/>
+      <c r="P11" s="311"/>
+      <c r="Q11" s="311"/>
+      <c r="R11" s="311"/>
+      <c r="S11" s="272"/>
     </row>
     <row r="12" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B12" s="55"/>
       <c r="C12" s="56"/>
       <c r="D12" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E12" s="302"/>
-      <c r="F12" s="303"/>
-      <c r="G12" s="304"/>
+        <v>94</v>
+      </c>
+      <c r="E12" s="312"/>
+      <c r="F12" s="313"/>
+      <c r="G12" s="314"/>
       <c r="H12" s="57"/>
       <c r="I12" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" s="305" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12" s="306"/>
-      <c r="L12" s="307"/>
+        <v>93</v>
+      </c>
+      <c r="J12" s="315" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="316"/>
+      <c r="L12" s="317"/>
       <c r="M12" s="58"/>
-      <c r="N12" s="301"/>
-      <c r="O12" s="301"/>
-      <c r="P12" s="301"/>
-      <c r="Q12" s="301"/>
-      <c r="R12" s="301"/>
-      <c r="S12" s="265"/>
+      <c r="N12" s="311"/>
+      <c r="O12" s="311"/>
+      <c r="P12" s="311"/>
+      <c r="Q12" s="311"/>
+      <c r="R12" s="311"/>
+      <c r="S12" s="272"/>
     </row>
     <row r="13" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="59"/>
       <c r="B13" s="60"/>
       <c r="C13" s="53"/>
       <c r="D13" s="59"/>
-      <c r="E13" s="308"/>
-      <c r="F13" s="309"/>
-      <c r="G13" s="310"/>
+      <c r="E13" s="318"/>
+      <c r="F13" s="319"/>
+      <c r="G13" s="320"/>
       <c r="H13" s="53"/>
       <c r="I13" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="254" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="255"/>
-      <c r="L13" s="256"/>
+        <v>91</v>
+      </c>
+      <c r="J13" s="261" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="262"/>
+      <c r="L13" s="263"/>
       <c r="M13" s="49"/>
-      <c r="N13" s="301"/>
-      <c r="O13" s="301"/>
-      <c r="P13" s="301"/>
-      <c r="Q13" s="301"/>
-      <c r="R13" s="301"/>
-      <c r="S13" s="265"/>
+      <c r="N13" s="311"/>
+      <c r="O13" s="311"/>
+      <c r="P13" s="311"/>
+      <c r="Q13" s="311"/>
+      <c r="R13" s="311"/>
+      <c r="S13" s="272"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A14" s="49"/>
@@ -18841,12 +18889,12 @@
       <c r="K14" s="49"/>
       <c r="L14" s="49"/>
       <c r="M14" s="49"/>
-      <c r="N14" s="301"/>
-      <c r="O14" s="301"/>
-      <c r="P14" s="301"/>
-      <c r="Q14" s="301"/>
-      <c r="R14" s="301"/>
-      <c r="S14" s="265"/>
+      <c r="N14" s="311"/>
+      <c r="O14" s="311"/>
+      <c r="P14" s="311"/>
+      <c r="Q14" s="311"/>
+      <c r="R14" s="311"/>
+      <c r="S14" s="272"/>
     </row>
     <row r="15" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
@@ -18864,92 +18912,92 @@
       <c r="M15" s="62"/>
       <c r="N15" s="62"/>
       <c r="O15" s="62"/>
-      <c r="P15" s="234"/>
-      <c r="Q15" s="234"/>
-      <c r="R15" s="234" t="s">
-        <v>91</v>
-      </c>
-      <c r="S15" s="234"/>
+      <c r="P15" s="241"/>
+      <c r="Q15" s="241"/>
+      <c r="R15" s="241" t="s">
+        <v>89</v>
+      </c>
+      <c r="S15" s="241"/>
     </row>
     <row r="16" spans="1:19" s="43" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="235">
+      <c r="A16" s="242">
         <v>1</v>
       </c>
-      <c r="B16" s="236"/>
-      <c r="C16" s="236"/>
-      <c r="D16" s="237"/>
+      <c r="B16" s="243"/>
+      <c r="C16" s="243"/>
+      <c r="D16" s="244"/>
       <c r="E16" s="64">
         <v>2</v>
       </c>
       <c r="F16" s="65">
         <v>3</v>
       </c>
-      <c r="G16" s="238">
+      <c r="G16" s="245">
         <v>4</v>
       </c>
-      <c r="H16" s="237"/>
+      <c r="H16" s="244"/>
       <c r="I16" s="65">
         <v>5</v>
       </c>
       <c r="J16" s="65">
         <v>6</v>
       </c>
-      <c r="K16" s="238">
+      <c r="K16" s="245">
         <v>7</v>
       </c>
-      <c r="L16" s="236"/>
-      <c r="M16" s="236"/>
-      <c r="N16" s="236"/>
-      <c r="O16" s="237"/>
-      <c r="P16" s="242">
+      <c r="L16" s="243"/>
+      <c r="M16" s="243"/>
+      <c r="N16" s="243"/>
+      <c r="O16" s="244"/>
+      <c r="P16" s="249">
         <v>8</v>
       </c>
-      <c r="Q16" s="243"/>
-      <c r="R16" s="238">
+      <c r="Q16" s="250"/>
+      <c r="R16" s="245">
         <v>9</v>
       </c>
-      <c r="S16" s="244"/>
+      <c r="S16" s="251"/>
     </row>
     <row r="17" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="216" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="217"/>
-      <c r="C17" s="217"/>
-      <c r="D17" s="218"/>
+      <c r="A17" s="223" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="225"/>
       <c r="E17" s="66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="245" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="218"/>
+        <v>61</v>
+      </c>
+      <c r="G17" s="252" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="225"/>
       <c r="I17" s="67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J17" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" s="295" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="296"/>
-      <c r="M17" s="296"/>
-      <c r="N17" s="296"/>
-      <c r="O17" s="297"/>
+        <v>58</v>
+      </c>
+      <c r="K17" s="305" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="306"/>
+      <c r="M17" s="306"/>
+      <c r="N17" s="306"/>
+      <c r="O17" s="307"/>
       <c r="P17" s="68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="R17" s="245" t="s">
-        <v>53</v>
-      </c>
-      <c r="S17" s="246"/>
+        <v>52</v>
+      </c>
+      <c r="R17" s="252" t="s">
+        <v>51</v>
+      </c>
+      <c r="S17" s="253"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="70"/>
@@ -18957,49 +19005,49 @@
       <c r="C18" s="71"/>
       <c r="D18" s="72"/>
       <c r="E18" s="73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="74"/>
-      <c r="G18" s="230" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="231"/>
+      <c r="G18" s="237" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="238"/>
       <c r="I18" s="75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J18" s="75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K18" s="76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L18" s="76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M18" s="76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N18" s="76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O18" s="76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P18" s="77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q18" s="78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R18" s="79"/>
       <c r="S18" s="80"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="289"/>
-      <c r="B19" s="290"/>
-      <c r="C19" s="290"/>
-      <c r="D19" s="291"/>
-      <c r="E19" s="186"/>
+      <c r="A19" s="298"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="189"/>
       <c r="F19" s="81"/>
       <c r="G19" s="82"/>
       <c r="H19" s="83"/>
@@ -19012,21 +19060,21 @@
       <c r="O19" s="67"/>
       <c r="P19" s="84"/>
       <c r="Q19" s="85"/>
-      <c r="R19" s="206"/>
-      <c r="S19" s="207"/>
+      <c r="R19" s="211"/>
+      <c r="S19" s="212"/>
     </row>
     <row r="20" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="292"/>
-      <c r="B20" s="293"/>
-      <c r="C20" s="293"/>
-      <c r="D20" s="294"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="326">
+      <c r="A20" s="301"/>
+      <c r="B20" s="302"/>
+      <c r="C20" s="302"/>
+      <c r="D20" s="303"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="304">
         <f>p!E36</f>
         <v>0</v>
       </c>
-      <c r="G20" s="227"/>
-      <c r="H20" s="224"/>
+      <c r="G20" s="234"/>
+      <c r="H20" s="231"/>
       <c r="I20" s="87"/>
       <c r="J20" s="67"/>
       <c r="K20" s="88"/>
@@ -19036,23 +19084,23 @@
       </c>
       <c r="M20" s="89"/>
       <c r="N20" s="67" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O20" s="90">
         <v>1</v>
       </c>
       <c r="P20" s="91"/>
       <c r="Q20" s="68"/>
-      <c r="R20" s="208"/>
-      <c r="S20" s="209"/>
+      <c r="R20" s="213"/>
+      <c r="S20" s="214"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="292"/>
-      <c r="B21" s="293"/>
-      <c r="C21" s="293"/>
-      <c r="D21" s="294"/>
-      <c r="E21" s="188"/>
-      <c r="F21" s="326"/>
+      <c r="A21" s="301"/>
+      <c r="B21" s="302"/>
+      <c r="C21" s="302"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="304"/>
       <c r="G21" s="92"/>
       <c r="H21" s="93"/>
       <c r="I21" s="87"/>
@@ -19064,18 +19112,18 @@
       <c r="O21" s="83"/>
       <c r="P21" s="91"/>
       <c r="Q21" s="68"/>
-      <c r="R21" s="190">
+      <c r="R21" s="193">
         <f>p!E8</f>
         <v>0</v>
       </c>
-      <c r="S21" s="191"/>
+      <c r="S21" s="194"/>
     </row>
     <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="180"/>
-      <c r="B22" s="181"/>
-      <c r="C22" s="181"/>
-      <c r="D22" s="182"/>
-      <c r="E22" s="188"/>
+      <c r="A22" s="183"/>
+      <c r="B22" s="184"/>
+      <c r="C22" s="184"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="191"/>
       <c r="F22" s="86"/>
       <c r="G22" s="92"/>
       <c r="H22" s="93"/>
@@ -19088,15 +19136,15 @@
       <c r="O22" s="67"/>
       <c r="P22" s="91"/>
       <c r="Q22" s="97"/>
-      <c r="R22" s="190"/>
-      <c r="S22" s="191"/>
+      <c r="R22" s="195"/>
+      <c r="S22" s="194"/>
     </row>
     <row r="23" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="180"/>
-      <c r="B23" s="181"/>
-      <c r="C23" s="181"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="189"/>
+      <c r="A23" s="183"/>
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="185"/>
+      <c r="E23" s="192"/>
       <c r="F23" s="86"/>
       <c r="G23" s="92"/>
       <c r="H23" s="93"/>
@@ -19109,18 +19157,18 @@
       <c r="O23" s="83"/>
       <c r="P23" s="91"/>
       <c r="Q23" s="97"/>
-      <c r="R23" s="192">
+      <c r="R23" s="196">
         <f>p!E13</f>
         <v>0</v>
       </c>
-      <c r="S23" s="192"/>
+      <c r="S23" s="197"/>
     </row>
     <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="183"/>
-      <c r="B24" s="184"/>
-      <c r="C24" s="184"/>
-      <c r="D24" s="185"/>
-      <c r="E24" s="189"/>
+      <c r="A24" s="186"/>
+      <c r="B24" s="187"/>
+      <c r="C24" s="187"/>
+      <c r="D24" s="188"/>
+      <c r="E24" s="192"/>
       <c r="F24" s="86"/>
       <c r="G24" s="92"/>
       <c r="H24" s="93"/>
@@ -19133,14 +19181,14 @@
       <c r="O24" s="98"/>
       <c r="P24" s="91"/>
       <c r="Q24" s="97"/>
-      <c r="R24" s="192"/>
-      <c r="S24" s="192"/>
+      <c r="R24" s="197"/>
+      <c r="S24" s="197"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="183"/>
-      <c r="B25" s="184"/>
-      <c r="C25" s="184"/>
-      <c r="D25" s="185"/>
+      <c r="A25" s="186"/>
+      <c r="B25" s="187"/>
+      <c r="C25" s="187"/>
+      <c r="D25" s="188"/>
       <c r="E25" s="99"/>
       <c r="F25" s="86"/>
       <c r="G25" s="92"/>
@@ -19154,14 +19202,14 @@
       <c r="O25" s="98"/>
       <c r="P25" s="91"/>
       <c r="Q25" s="97"/>
-      <c r="R25" s="280"/>
-      <c r="S25" s="281"/>
+      <c r="R25" s="289"/>
+      <c r="S25" s="290"/>
     </row>
     <row r="26" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="282"/>
-      <c r="B26" s="283"/>
-      <c r="C26" s="283"/>
-      <c r="D26" s="284"/>
+      <c r="A26" s="291"/>
+      <c r="B26" s="292"/>
+      <c r="C26" s="292"/>
+      <c r="D26" s="293"/>
       <c r="E26" s="100"/>
       <c r="F26" s="101"/>
       <c r="G26" s="92"/>
@@ -19175,8 +19223,8 @@
       <c r="O26" s="93"/>
       <c r="P26" s="91"/>
       <c r="Q26" s="97"/>
-      <c r="R26" s="285"/>
-      <c r="S26" s="286"/>
+      <c r="R26" s="294"/>
+      <c r="S26" s="295"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="102"/>
@@ -19196,18 +19244,18 @@
       <c r="O27" s="93"/>
       <c r="P27" s="91"/>
       <c r="Q27" s="97"/>
-      <c r="R27" s="285"/>
-      <c r="S27" s="286"/>
+      <c r="R27" s="294"/>
+      <c r="S27" s="295"/>
     </row>
     <row r="28" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="174"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="176"/>
+      <c r="A28" s="177"/>
+      <c r="B28" s="178"/>
+      <c r="C28" s="178"/>
+      <c r="D28" s="179"/>
       <c r="E28" s="104"/>
       <c r="F28" s="81"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="176"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="179"/>
       <c r="I28" s="105"/>
       <c r="J28" s="105"/>
       <c r="K28" s="105"/>
@@ -19217,8 +19265,8 @@
       <c r="O28" s="105"/>
       <c r="P28" s="105"/>
       <c r="Q28" s="106"/>
-      <c r="R28" s="287"/>
-      <c r="S28" s="288"/>
+      <c r="R28" s="296"/>
+      <c r="S28" s="297"/>
     </row>
     <row r="29" spans="1:19" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="107"/>
@@ -19226,7 +19274,7 @@
       <c r="C29" s="107"/>
       <c r="D29" s="107"/>
       <c r="E29" s="52"/>
-      <c r="F29" s="327">
+      <c r="F29" s="274">
         <f>F20</f>
         <v>0</v>
       </c>
@@ -19246,84 +19294,84 @@
     </row>
     <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
-      <c r="B30" s="267" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" s="267"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="328"/>
-      <c r="G30" s="268" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="269"/>
-      <c r="I30" s="269"/>
-      <c r="J30" s="269"/>
-      <c r="K30" s="269"/>
-      <c r="L30" s="269"/>
-      <c r="M30" s="270"/>
-      <c r="N30" s="271" t="s">
+      <c r="B30" s="276" t="s">
         <v>83</v>
       </c>
-      <c r="O30" s="272"/>
-      <c r="P30" s="272"/>
-      <c r="Q30" s="272"/>
-      <c r="R30" s="273"/>
+      <c r="C30" s="276"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="276"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="277" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="278"/>
+      <c r="I30" s="278"/>
+      <c r="J30" s="278"/>
+      <c r="K30" s="278"/>
+      <c r="L30" s="278"/>
+      <c r="M30" s="279"/>
+      <c r="N30" s="280" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="281"/>
+      <c r="P30" s="281"/>
+      <c r="Q30" s="281"/>
+      <c r="R30" s="282"/>
       <c r="S30" s="49"/>
     </row>
     <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="49"/>
-      <c r="B31" s="274" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="274"/>
-      <c r="D31" s="274"/>
-      <c r="E31" s="275"/>
+      <c r="B31" s="283" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="283"/>
+      <c r="D31" s="283"/>
+      <c r="E31" s="284"/>
       <c r="F31" s="108">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="G31" s="276"/>
-      <c r="H31" s="277"/>
-      <c r="I31" s="277"/>
-      <c r="J31" s="277"/>
-      <c r="K31" s="277"/>
-      <c r="L31" s="277"/>
-      <c r="M31" s="278"/>
-      <c r="N31" s="258" t="s">
-        <v>81</v>
-      </c>
-      <c r="O31" s="259"/>
-      <c r="P31" s="259"/>
-      <c r="Q31" s="259"/>
-      <c r="R31" s="260"/>
+      <c r="G31" s="285"/>
+      <c r="H31" s="286"/>
+      <c r="I31" s="286"/>
+      <c r="J31" s="286"/>
+      <c r="K31" s="286"/>
+      <c r="L31" s="286"/>
+      <c r="M31" s="287"/>
+      <c r="N31" s="265" t="s">
+        <v>79</v>
+      </c>
+      <c r="O31" s="266"/>
+      <c r="P31" s="266"/>
+      <c r="Q31" s="266"/>
+      <c r="R31" s="267"/>
       <c r="S31" s="49"/>
     </row>
     <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="49"/>
-      <c r="B32" s="274" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="274"/>
-      <c r="D32" s="274"/>
-      <c r="E32" s="267"/>
+      <c r="B32" s="283" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="283"/>
+      <c r="D32" s="283"/>
+      <c r="E32" s="276"/>
       <c r="F32" s="109" t="s">
-        <v>79</v>
-      </c>
-      <c r="G32" s="279"/>
-      <c r="H32" s="277"/>
-      <c r="I32" s="277"/>
-      <c r="J32" s="277"/>
-      <c r="K32" s="277"/>
-      <c r="L32" s="277"/>
-      <c r="M32" s="278"/>
-      <c r="N32" s="258" t="s">
-        <v>78</v>
-      </c>
-      <c r="O32" s="259"/>
-      <c r="P32" s="259"/>
-      <c r="Q32" s="259"/>
-      <c r="R32" s="260"/>
+        <v>77</v>
+      </c>
+      <c r="G32" s="288"/>
+      <c r="H32" s="286"/>
+      <c r="I32" s="286"/>
+      <c r="J32" s="286"/>
+      <c r="K32" s="286"/>
+      <c r="L32" s="286"/>
+      <c r="M32" s="287"/>
+      <c r="N32" s="265" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" s="266"/>
+      <c r="P32" s="266"/>
+      <c r="Q32" s="266"/>
+      <c r="R32" s="267"/>
       <c r="S32" s="49"/>
     </row>
     <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.2">
@@ -19336,19 +19384,19 @@
       <c r="G33" s="49"/>
       <c r="H33" s="49"/>
       <c r="I33" s="49"/>
-      <c r="J33" s="257" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33" s="257"/>
-      <c r="L33" s="257"/>
+      <c r="J33" s="264" t="s">
+        <v>75</v>
+      </c>
+      <c r="K33" s="264"/>
+      <c r="L33" s="264"/>
       <c r="M33" s="49"/>
-      <c r="N33" s="258" t="s">
-        <v>76</v>
-      </c>
-      <c r="O33" s="259"/>
-      <c r="P33" s="259"/>
-      <c r="Q33" s="259"/>
-      <c r="R33" s="260"/>
+      <c r="N33" s="265" t="s">
+        <v>74</v>
+      </c>
+      <c r="O33" s="266"/>
+      <c r="P33" s="266"/>
+      <c r="Q33" s="266"/>
+      <c r="R33" s="267"/>
       <c r="S33" s="49"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -19365,13 +19413,13 @@
       <c r="K34" s="49"/>
       <c r="L34" s="49"/>
       <c r="M34" s="49"/>
-      <c r="N34" s="261" t="s">
-        <v>75</v>
-      </c>
-      <c r="O34" s="262"/>
-      <c r="P34" s="262"/>
-      <c r="Q34" s="262"/>
-      <c r="R34" s="263"/>
+      <c r="N34" s="268" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34" s="269"/>
+      <c r="P34" s="269"/>
+      <c r="Q34" s="269"/>
+      <c r="R34" s="270"/>
       <c r="S34" s="49"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
@@ -19388,11 +19436,11 @@
       <c r="K35" s="49"/>
       <c r="L35" s="49"/>
       <c r="M35" s="49"/>
-      <c r="N35" s="253"/>
-      <c r="O35" s="253"/>
-      <c r="P35" s="253"/>
-      <c r="Q35" s="253"/>
-      <c r="R35" s="253"/>
+      <c r="N35" s="260"/>
+      <c r="O35" s="260"/>
+      <c r="P35" s="260"/>
+      <c r="Q35" s="260"/>
+      <c r="R35" s="260"/>
       <c r="S35" s="49"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
@@ -19565,7 +19613,7 @@
     </row>
     <row r="44" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="110" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" s="111"/>
       <c r="C44" s="111"/>
@@ -19575,21 +19623,21 @@
       <c r="G44" s="49"/>
       <c r="H44" s="49"/>
       <c r="I44" s="112"/>
-      <c r="J44" s="264" t="s">
-        <v>73</v>
-      </c>
-      <c r="K44" s="264"/>
-      <c r="L44" s="264"/>
-      <c r="M44" s="264"/>
-      <c r="N44" s="264"/>
-      <c r="O44" s="264">
+      <c r="J44" s="271" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="271"/>
+      <c r="L44" s="271"/>
+      <c r="M44" s="271"/>
+      <c r="N44" s="271"/>
+      <c r="O44" s="271">
         <f>E21</f>
         <v>0</v>
       </c>
-      <c r="P44" s="264"/>
-      <c r="Q44" s="264"/>
-      <c r="R44" s="264"/>
-      <c r="S44" s="265"/>
+      <c r="P44" s="271"/>
+      <c r="Q44" s="271"/>
+      <c r="R44" s="271"/>
+      <c r="S44" s="272"/>
     </row>
     <row r="45" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="49"/>
@@ -19602,20 +19650,20 @@
       <c r="H45" s="49"/>
       <c r="I45" s="49"/>
       <c r="J45" s="113" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K45" s="113"/>
       <c r="L45" s="113"/>
       <c r="M45" s="113"/>
       <c r="N45" s="113"/>
       <c r="O45" s="113"/>
-      <c r="P45" s="266">
+      <c r="P45" s="273">
         <f>K9</f>
         <v>0</v>
       </c>
-      <c r="Q45" s="266"/>
+      <c r="Q45" s="273"/>
       <c r="R45" s="114"/>
-      <c r="S45" s="265"/>
+      <c r="S45" s="272"/>
     </row>
     <row r="46" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="49"/>
@@ -19627,79 +19675,79 @@
       <c r="G46" s="53"/>
       <c r="H46" s="53"/>
       <c r="I46" s="49"/>
-      <c r="J46" s="264"/>
-      <c r="K46" s="264"/>
-      <c r="L46" s="264"/>
-      <c r="M46" s="264"/>
-      <c r="N46" s="264"/>
-      <c r="O46" s="264"/>
-      <c r="P46" s="264"/>
+      <c r="J46" s="271"/>
+      <c r="K46" s="271"/>
+      <c r="L46" s="271"/>
+      <c r="M46" s="271"/>
+      <c r="N46" s="271"/>
+      <c r="O46" s="271"/>
+      <c r="P46" s="271"/>
       <c r="Q46" s="114"/>
       <c r="R46" s="114"/>
-      <c r="S46" s="265"/>
+      <c r="S46" s="272"/>
     </row>
     <row r="47" spans="1:19" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="217" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="217"/>
+      <c r="A47" s="224" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="224"/>
       <c r="C47" s="56"/>
-      <c r="D47" s="247" t="s">
-        <v>70</v>
-      </c>
-      <c r="E47" s="248"/>
-      <c r="F47" s="248"/>
-      <c r="G47" s="249"/>
+      <c r="D47" s="254" t="s">
+        <v>68</v>
+      </c>
+      <c r="E47" s="255"/>
+      <c r="F47" s="255"/>
+      <c r="G47" s="256"/>
       <c r="H47" s="57"/>
       <c r="I47" s="103"/>
-      <c r="J47" s="217"/>
-      <c r="K47" s="217"/>
-      <c r="L47" s="217"/>
+      <c r="J47" s="224"/>
+      <c r="K47" s="224"/>
+      <c r="L47" s="224"/>
       <c r="M47" s="58"/>
       <c r="N47" s="114"/>
       <c r="O47" s="114"/>
       <c r="P47" s="114"/>
       <c r="Q47" s="114"/>
       <c r="R47" s="114"/>
-      <c r="S47" s="265"/>
+      <c r="S47" s="272"/>
     </row>
     <row r="48" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="223" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="223"/>
+      <c r="A48" s="230" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="230"/>
       <c r="C48" s="53"/>
-      <c r="D48" s="250" t="s">
-        <v>69</v>
-      </c>
-      <c r="E48" s="251"/>
-      <c r="F48" s="251"/>
-      <c r="G48" s="252"/>
+      <c r="D48" s="257" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="258"/>
+      <c r="F48" s="258"/>
+      <c r="G48" s="259"/>
       <c r="H48" s="53"/>
       <c r="I48" s="103"/>
-      <c r="J48" s="223"/>
-      <c r="K48" s="223"/>
-      <c r="L48" s="223"/>
+      <c r="J48" s="230"/>
+      <c r="K48" s="230"/>
+      <c r="L48" s="230"/>
       <c r="M48" s="49"/>
       <c r="N48" s="114"/>
       <c r="O48" s="114"/>
       <c r="P48" s="114"/>
       <c r="Q48" s="114"/>
       <c r="R48" s="114"/>
-      <c r="S48" s="265"/>
+      <c r="S48" s="272"/>
     </row>
     <row r="49" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="253" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" s="253"/>
+      <c r="A49" s="260" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" s="260"/>
       <c r="C49" s="49"/>
-      <c r="D49" s="254" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="255"/>
-      <c r="F49" s="255"/>
-      <c r="G49" s="256"/>
+      <c r="D49" s="261" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="262"/>
+      <c r="F49" s="262"/>
+      <c r="G49" s="263"/>
       <c r="H49" s="49"/>
       <c r="I49" s="49"/>
       <c r="J49" s="49"/>
@@ -19711,7 +19759,7 @@
       <c r="P49" s="114"/>
       <c r="Q49" s="114"/>
       <c r="R49" s="114"/>
-      <c r="S49" s="265"/>
+      <c r="S49" s="272"/>
     </row>
     <row r="50" spans="1:33" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="62"/>
@@ -19729,157 +19777,157 @@
       <c r="M50" s="62"/>
       <c r="N50" s="62"/>
       <c r="O50" s="62"/>
-      <c r="P50" s="234"/>
-      <c r="Q50" s="234"/>
-      <c r="R50" s="234"/>
-      <c r="S50" s="234"/>
+      <c r="P50" s="241"/>
+      <c r="Q50" s="241"/>
+      <c r="R50" s="241"/>
+      <c r="S50" s="241"/>
     </row>
     <row r="51" spans="1:33" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="235">
+      <c r="A51" s="242">
         <v>1</v>
       </c>
-      <c r="B51" s="236"/>
-      <c r="C51" s="236"/>
-      <c r="D51" s="237"/>
+      <c r="B51" s="243"/>
+      <c r="C51" s="243"/>
+      <c r="D51" s="244"/>
       <c r="E51" s="64">
         <v>2</v>
       </c>
       <c r="F51" s="65">
         <v>3</v>
       </c>
-      <c r="G51" s="238">
+      <c r="G51" s="245">
         <v>4</v>
       </c>
-      <c r="H51" s="237"/>
+      <c r="H51" s="244"/>
       <c r="I51" s="65">
         <v>5</v>
       </c>
       <c r="J51" s="65">
         <v>6</v>
       </c>
-      <c r="K51" s="239" t="s">
-        <v>66</v>
-      </c>
-      <c r="L51" s="240"/>
-      <c r="M51" s="240"/>
-      <c r="N51" s="240"/>
-      <c r="O51" s="241"/>
-      <c r="P51" s="242">
+      <c r="K51" s="246" t="s">
+        <v>64</v>
+      </c>
+      <c r="L51" s="247"/>
+      <c r="M51" s="247"/>
+      <c r="N51" s="247"/>
+      <c r="O51" s="248"/>
+      <c r="P51" s="249">
         <v>8</v>
       </c>
-      <c r="Q51" s="243"/>
-      <c r="R51" s="238">
+      <c r="Q51" s="250"/>
+      <c r="R51" s="245">
         <v>9</v>
       </c>
-      <c r="S51" s="244"/>
+      <c r="S51" s="251"/>
     </row>
     <row r="52" spans="1:33" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="216" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="217"/>
-      <c r="C52" s="217"/>
-      <c r="D52" s="218"/>
+      <c r="A52" s="223" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="224"/>
+      <c r="C52" s="224"/>
+      <c r="D52" s="225"/>
       <c r="E52" s="66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F52" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="G52" s="245" t="s">
-        <v>62</v>
-      </c>
-      <c r="H52" s="218"/>
+        <v>61</v>
+      </c>
+      <c r="G52" s="252" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" s="225"/>
       <c r="I52" s="67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J52" s="67" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K52" s="115" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L52" s="115" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M52" s="115" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N52" s="115" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O52" s="115" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P52" s="68" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q52" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="R52" s="245" t="s">
-        <v>53</v>
-      </c>
-      <c r="S52" s="246"/>
+        <v>52</v>
+      </c>
+      <c r="R52" s="252" t="s">
+        <v>51</v>
+      </c>
+      <c r="S52" s="253"/>
     </row>
     <row r="53" spans="1:33" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A53" s="70"/>
-      <c r="B53" s="228"/>
-      <c r="C53" s="228"/>
-      <c r="D53" s="229"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="235"/>
+      <c r="D53" s="236"/>
       <c r="E53" s="73" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" s="74"/>
-      <c r="G53" s="230" t="s">
-        <v>51</v>
-      </c>
-      <c r="H53" s="231"/>
+      <c r="G53" s="237" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="238"/>
       <c r="I53" s="75" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J53" s="75" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K53" s="76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L53" s="76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M53" s="76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N53" s="116" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O53" s="76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P53" s="77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q53" s="78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="R53" s="79"/>
       <c r="S53" s="80"/>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A54" s="193">
+      <c r="A54" s="198">
         <f>A19</f>
         <v>0</v>
       </c>
-      <c r="B54" s="194"/>
-      <c r="C54" s="194"/>
-      <c r="D54" s="195"/>
-      <c r="E54" s="202">
+      <c r="B54" s="199"/>
+      <c r="C54" s="199"/>
+      <c r="D54" s="200"/>
+      <c r="E54" s="207">
         <f>E19</f>
         <v>0</v>
       </c>
       <c r="F54" s="117"/>
-      <c r="G54" s="232"/>
-      <c r="H54" s="232"/>
+      <c r="G54" s="239"/>
+      <c r="H54" s="239"/>
       <c r="I54" s="117"/>
       <c r="J54" s="117"/>
       <c r="K54" s="117"/>
@@ -19889,18 +19937,18 @@
       <c r="O54" s="117"/>
       <c r="P54" s="118"/>
       <c r="Q54" s="119"/>
-      <c r="R54" s="232"/>
-      <c r="S54" s="233"/>
+      <c r="R54" s="239"/>
+      <c r="S54" s="240"/>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A55" s="196"/>
-      <c r="B55" s="197"/>
-      <c r="C55" s="197"/>
-      <c r="D55" s="198"/>
-      <c r="E55" s="203"/>
+      <c r="A55" s="201"/>
+      <c r="B55" s="202"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="203"/>
+      <c r="E55" s="208"/>
       <c r="F55" s="87"/>
-      <c r="G55" s="219"/>
-      <c r="H55" s="219"/>
+      <c r="G55" s="226"/>
+      <c r="H55" s="226"/>
       <c r="I55" s="87"/>
       <c r="J55" s="87"/>
       <c r="K55" s="87"/>
@@ -19910,25 +19958,25 @@
       <c r="O55" s="87"/>
       <c r="P55" s="91"/>
       <c r="Q55" s="121"/>
-      <c r="R55" s="210">
+      <c r="R55" s="215">
         <f>R19</f>
         <v>0</v>
       </c>
-      <c r="S55" s="211"/>
+      <c r="S55" s="216"/>
       <c r="AG55" s="41"/>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A56" s="196"/>
-      <c r="B56" s="197"/>
-      <c r="C56" s="197"/>
-      <c r="D56" s="198"/>
-      <c r="E56" s="204">
+      <c r="A56" s="201"/>
+      <c r="B56" s="202"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="203"/>
+      <c r="E56" s="209">
         <f>E21</f>
         <v>0</v>
       </c>
       <c r="F56" s="122"/>
-      <c r="G56" s="224"/>
-      <c r="H56" s="219"/>
+      <c r="G56" s="231"/>
+      <c r="H56" s="226"/>
       <c r="I56" s="98"/>
       <c r="J56" s="87"/>
       <c r="K56" s="82"/>
@@ -19938,24 +19986,24 @@
       <c r="O56" s="90"/>
       <c r="P56" s="91"/>
       <c r="Q56" s="68"/>
-      <c r="R56" s="210"/>
-      <c r="S56" s="211"/>
+      <c r="R56" s="217"/>
+      <c r="S56" s="216"/>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A57" s="199">
+      <c r="A57" s="204">
         <f>A22</f>
         <v>0</v>
       </c>
-      <c r="B57" s="200"/>
-      <c r="C57" s="200"/>
-      <c r="D57" s="201"/>
-      <c r="E57" s="204"/>
+      <c r="B57" s="205"/>
+      <c r="C57" s="205"/>
+      <c r="D57" s="206"/>
+      <c r="E57" s="209"/>
       <c r="F57" s="132">
         <f>F20</f>
         <v>0</v>
       </c>
-      <c r="G57" s="223"/>
-      <c r="H57" s="224"/>
+      <c r="G57" s="230"/>
+      <c r="H57" s="231"/>
       <c r="I57" s="87"/>
       <c r="J57" s="124">
         <f t="shared" ref="J57:O57" si="0">J20</f>
@@ -19983,24 +20031,24 @@
       </c>
       <c r="P57" s="91"/>
       <c r="Q57" s="97"/>
-      <c r="R57" s="212">
+      <c r="R57" s="218">
         <f>R21</f>
         <v>0</v>
       </c>
-      <c r="S57" s="213"/>
+      <c r="S57" s="219"/>
     </row>
     <row r="58" spans="1:33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="199"/>
-      <c r="B58" s="200"/>
-      <c r="C58" s="200"/>
-      <c r="D58" s="201"/>
-      <c r="E58" s="205">
+      <c r="A58" s="204"/>
+      <c r="B58" s="205"/>
+      <c r="C58" s="205"/>
+      <c r="D58" s="206"/>
+      <c r="E58" s="210">
         <f>E23</f>
         <v>0</v>
       </c>
       <c r="F58" s="126"/>
-      <c r="G58" s="227"/>
-      <c r="H58" s="224"/>
+      <c r="G58" s="234"/>
+      <c r="H58" s="231"/>
       <c r="I58" s="87"/>
       <c r="J58" s="87"/>
       <c r="K58" s="98"/>
@@ -20010,15 +20058,15 @@
       <c r="O58" s="98"/>
       <c r="P58" s="91"/>
       <c r="Q58" s="97"/>
-      <c r="R58" s="212"/>
-      <c r="S58" s="213"/>
+      <c r="R58" s="218"/>
+      <c r="S58" s="219"/>
     </row>
     <row r="59" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="199"/>
-      <c r="B59" s="200"/>
-      <c r="C59" s="200"/>
-      <c r="D59" s="201"/>
-      <c r="E59" s="205"/>
+      <c r="A59" s="204"/>
+      <c r="B59" s="205"/>
+      <c r="C59" s="205"/>
+      <c r="D59" s="206"/>
+      <c r="E59" s="210"/>
       <c r="F59" s="128"/>
       <c r="G59" s="92"/>
       <c r="H59" s="93"/>
@@ -20031,14 +20079,14 @@
       <c r="O59" s="98"/>
       <c r="P59" s="91"/>
       <c r="Q59" s="97"/>
-      <c r="R59" s="212"/>
-      <c r="S59" s="213"/>
+      <c r="R59" s="218"/>
+      <c r="S59" s="219"/>
     </row>
     <row r="60" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="199"/>
-      <c r="B60" s="200"/>
-      <c r="C60" s="200"/>
-      <c r="D60" s="201"/>
+      <c r="A60" s="204"/>
+      <c r="B60" s="205"/>
+      <c r="C60" s="205"/>
+      <c r="D60" s="206"/>
       <c r="E60" s="125"/>
       <c r="F60" s="128"/>
       <c r="G60" s="92"/>
@@ -20052,17 +20100,17 @@
       <c r="O60" s="98"/>
       <c r="P60" s="91"/>
       <c r="Q60" s="97"/>
-      <c r="R60" s="214">
+      <c r="R60" s="220">
         <f>R23</f>
         <v>0</v>
       </c>
-      <c r="S60" s="215"/>
+      <c r="S60" s="221"/>
     </row>
     <row r="61" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="216"/>
-      <c r="B61" s="217"/>
-      <c r="C61" s="217"/>
-      <c r="D61" s="217"/>
+      <c r="A61" s="223"/>
+      <c r="B61" s="224"/>
+      <c r="C61" s="224"/>
+      <c r="D61" s="224"/>
       <c r="E61" s="125"/>
       <c r="F61" s="128"/>
       <c r="G61" s="92"/>
@@ -20076,18 +20124,18 @@
       <c r="O61" s="98"/>
       <c r="P61" s="91"/>
       <c r="Q61" s="97"/>
-      <c r="R61" s="214"/>
-      <c r="S61" s="215"/>
+      <c r="R61" s="222"/>
+      <c r="S61" s="221"/>
     </row>
     <row r="62" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A62" s="216"/>
-      <c r="B62" s="217"/>
-      <c r="C62" s="217"/>
-      <c r="D62" s="218"/>
+      <c r="A62" s="223"/>
+      <c r="B62" s="224"/>
+      <c r="C62" s="224"/>
+      <c r="D62" s="225"/>
       <c r="E62" s="130"/>
       <c r="F62" s="87"/>
-      <c r="G62" s="219"/>
-      <c r="H62" s="219"/>
+      <c r="G62" s="226"/>
+      <c r="H62" s="226"/>
       <c r="I62" s="87"/>
       <c r="J62" s="87"/>
       <c r="K62" s="87"/>
@@ -20097,18 +20145,18 @@
       <c r="O62" s="87"/>
       <c r="P62" s="91"/>
       <c r="Q62" s="121"/>
-      <c r="R62" s="220"/>
-      <c r="S62" s="221"/>
+      <c r="R62" s="227"/>
+      <c r="S62" s="228"/>
     </row>
     <row r="63" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A63" s="216"/>
-      <c r="B63" s="217"/>
-      <c r="C63" s="217"/>
-      <c r="D63" s="218"/>
+      <c r="A63" s="223"/>
+      <c r="B63" s="224"/>
+      <c r="C63" s="224"/>
+      <c r="D63" s="225"/>
       <c r="E63" s="120"/>
       <c r="F63" s="87"/>
-      <c r="G63" s="219"/>
-      <c r="H63" s="219"/>
+      <c r="G63" s="226"/>
+      <c r="H63" s="226"/>
       <c r="I63" s="87"/>
       <c r="J63" s="87"/>
       <c r="K63" s="87"/>
@@ -20118,18 +20166,18 @@
       <c r="O63" s="87"/>
       <c r="P63" s="91"/>
       <c r="Q63" s="121"/>
-      <c r="R63" s="220"/>
-      <c r="S63" s="221"/>
+      <c r="R63" s="227"/>
+      <c r="S63" s="228"/>
     </row>
     <row r="64" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A64" s="222"/>
-      <c r="B64" s="223"/>
-      <c r="C64" s="223"/>
-      <c r="D64" s="224"/>
+      <c r="A64" s="229"/>
+      <c r="B64" s="230"/>
+      <c r="C64" s="230"/>
+      <c r="D64" s="231"/>
       <c r="E64" s="120"/>
       <c r="F64" s="87"/>
-      <c r="G64" s="219"/>
-      <c r="H64" s="219"/>
+      <c r="G64" s="226"/>
+      <c r="H64" s="226"/>
       <c r="I64" s="87"/>
       <c r="J64" s="87"/>
       <c r="K64" s="87"/>
@@ -20139,18 +20187,18 @@
       <c r="O64" s="87"/>
       <c r="P64" s="91"/>
       <c r="Q64" s="121"/>
-      <c r="R64" s="225"/>
-      <c r="S64" s="226"/>
+      <c r="R64" s="232"/>
+      <c r="S64" s="233"/>
     </row>
     <row r="65" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="174"/>
-      <c r="B65" s="175"/>
-      <c r="C65" s="175"/>
-      <c r="D65" s="176"/>
+      <c r="A65" s="177"/>
+      <c r="B65" s="178"/>
+      <c r="C65" s="178"/>
+      <c r="D65" s="179"/>
       <c r="E65" s="104"/>
       <c r="F65" s="105"/>
-      <c r="G65" s="177"/>
-      <c r="H65" s="176"/>
+      <c r="G65" s="180"/>
+      <c r="H65" s="179"/>
       <c r="I65" s="105"/>
       <c r="J65" s="105"/>
       <c r="K65" s="105"/>
@@ -20160,8 +20208,8 @@
       <c r="O65" s="105"/>
       <c r="P65" s="105"/>
       <c r="Q65" s="106"/>
-      <c r="R65" s="178"/>
-      <c r="S65" s="179"/>
+      <c r="R65" s="181"/>
+      <c r="S65" s="182"/>
     </row>
     <row r="66" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A66" s="49"/>
@@ -20383,8 +20431,8 @@
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="R62:S62"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="89" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
